--- a/Modèle+analyse+SEO+et+accessibilité.xlsx
+++ b/Modèle+analyse+SEO+et+accessibilité.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\OneDrive\Documents\GitHub\Projet4_Referencement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDAE00E-2FFB-4349-9557-417C248AD21E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAEF6E1-B0FB-4D54-9C96-30CAAE0EC5BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Categorie</t>
   </si>
@@ -40,14 +40,62 @@
     <t>Référence</t>
   </si>
   <si>
-    <t>(SEO ou accessiblité ?)</t>
+    <t>SEO</t>
+  </si>
+  <si>
+    <t>Pas de nom de site lorsque le site a été chargé</t>
+  </si>
+  <si>
+    <t>La balise méta "Title" n'est pas présente sur le HTML</t>
+  </si>
+  <si>
+    <t>https://www.webrankinfo.com/dossiers/techniques/guide-balises-meta</t>
+  </si>
+  <si>
+    <t>Il faut avoir une description la plus détaillée et précise afin que les inetrnautes identifient directment la nature du site, comme Google.</t>
+  </si>
+  <si>
+    <t>Il faut corriger cet oubli pour avoir un nm identifié</t>
+  </si>
+  <si>
+    <t>La description du site est vide dans la balise description</t>
+  </si>
+  <si>
+    <t>Aucune information n'est renseigné entre les guillements du content de la balise description</t>
+  </si>
+  <si>
+    <t>Ajouter une balise Title avec le nom de l'agence pour mieux identifier le site</t>
+  </si>
+  <si>
+    <t>Compléter cette balise par une description de l'activité d el'angec pour se présenter des le moteur de recherche</t>
+  </si>
+  <si>
+    <t>Trop de répétitions sur les mots clés</t>
+  </si>
+  <si>
+    <t>Langue</t>
+  </si>
+  <si>
+    <t>Absence de menu claire</t>
+  </si>
+  <si>
+    <t>Version responsive</t>
+  </si>
+  <si>
+    <t>Absence de header</t>
+  </si>
+  <si>
+    <t>Absence de footer</t>
+  </si>
+  <si>
+    <t>Taille des images différentes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -71,6 +119,18 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -103,18 +163,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,15 +406,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
     <col min="3" max="3" width="31.44140625" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" customWidth="1"/>
-    <col min="5" max="5" width="43.77734375" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="26" width="10.5546875" customWidth="1"/>
   </cols>
@@ -383,55 +461,138 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:26" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1387,7 +1548,11 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{C51F3285-7434-4201-B13E-ED787DFB7A81}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{BDF4F393-56AD-464E-A41F-207E824351D2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Modèle+analyse+SEO+et+accessibilité.xlsx
+++ b/Modèle+analyse+SEO+et+accessibilité.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\OneDrive\Documents\GitHub\Projet4_Referencement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAEF6E1-B0FB-4D54-9C96-30CAAE0EC5BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BD493D-94CB-4E05-93E0-4D734BB03A9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="96">
   <si>
     <t>Categorie</t>
   </si>
@@ -61,9 +61,6 @@
     <t>La description du site est vide dans la balise description</t>
   </si>
   <si>
-    <t>Aucune information n'est renseigné entre les guillements du content de la balise description</t>
-  </si>
-  <si>
     <t>Ajouter une balise Title avec le nom de l'agence pour mieux identifier le site</t>
   </si>
   <si>
@@ -88,14 +85,236 @@
     <t>Absence de footer</t>
   </si>
   <si>
-    <t>Taille des images différentes</t>
+    <t>Accessibilité</t>
+  </si>
+  <si>
+    <t>Error 404 not found</t>
+  </si>
+  <si>
+    <t>Tout les liens redirigent la page vers des liens cassés</t>
+  </si>
+  <si>
+    <t>Configurer le site pour qu'ils s'adaptent à tout les types d'écrans, ordinateurs, tablettes, smartphones…</t>
+  </si>
+  <si>
+    <t>Le menu doit clairement indiquer vers quelles parties du site nous allons être redirigés</t>
+  </si>
+  <si>
+    <t>La langue du site doit être pour que lors du crawling, Google identifie clairement la langue sur dite ou celle qu'il doit appliquer</t>
+  </si>
+  <si>
+    <t>Taille des images</t>
+  </si>
+  <si>
+    <t>Pour une sémantique en accord avec les règles W3C, une page dout contenir un header identifié</t>
+  </si>
+  <si>
+    <t>Pour une sémantique en accord avec les règles W3C, une page dout contenir un footer identifié</t>
+  </si>
+  <si>
+    <t>Les images doivent toujours être redimmensionnées et être relativement toutes à la même taille</t>
+  </si>
+  <si>
+    <t>Il ne faut pas de liens cassés sur un site générant des erreurs de redirection.</t>
+  </si>
+  <si>
+    <t>Le site n'est indexé</t>
+  </si>
+  <si>
+    <t>Il faut avoir une balise robot "index, follow" pour signifier au moteur de recherche que la page doit être indexée et les liens suivis</t>
+  </si>
+  <si>
+    <t>La balise Robot est absente du code en HTML ce qui explique que le site ne soit pas indéxé</t>
+  </si>
+  <si>
+    <t>Le mot clé n'apparait pas dans le titre</t>
+  </si>
+  <si>
+    <t>Le mot clé principal doit toujours être présent dans le titre h1</t>
+  </si>
+  <si>
+    <t>Lors du crawling du site, Google analyse les titres, il est primordial qu'il soit présent dans le titre</t>
+  </si>
+  <si>
+    <t>La balise h2 est utilisé à mauvais escient</t>
+  </si>
+  <si>
+    <t>Le contenu doit être correctement segmenté, la balise h2 doit être une sous partie comme un sous-titre et non comme un texte</t>
+  </si>
+  <si>
+    <t>Mauvaises descriptions des images et sémantique non corforme</t>
+  </si>
+  <si>
+    <t>Les balises images doivent commencer par src, puis alt. De plus, la description doit décrire l'image en utlisant un mot clé, mais il ne faut utiliser des mots clés qui 'nont pas de rapports dons le but de tromper Google</t>
+  </si>
+  <si>
+    <t>Formulaire de contact</t>
+  </si>
+  <si>
+    <t>Le formulaire n'est pas bien mis en page, ni pratique</t>
+  </si>
+  <si>
+    <t>Une page 2 sans grande utilité</t>
+  </si>
+  <si>
+    <t>Une seconde page d'un site doit apporter une information qui vient compléter la première</t>
+  </si>
+  <si>
+    <t>Il faut éviter une redite ou répétitions des mots clés pour éviter que Google juge cela comme du spam</t>
+  </si>
+  <si>
+    <t>La répétition constante de mots clés peut paraitre comme du Black Hat pour Google</t>
+  </si>
+  <si>
+    <t>Mieux définir le sujet du site et le champ lexical de mots clés à utiliser</t>
+  </si>
+  <si>
+    <t>Rajouter une balise robot pour indiquer que l'on souhaite que notre page soit indexée</t>
+  </si>
+  <si>
+    <t>Aucune information n'est renseignée entre les guillements du content de la balise description</t>
+  </si>
+  <si>
+    <t>Rajouter au titre La Chouette Agence, le mot clé créatrice de web design</t>
+  </si>
+  <si>
+    <t>Trop de divs utilisées dans le code HTML</t>
+  </si>
+  <si>
+    <t>Il faut respecter une sémantique et une structuration claire du HTML selon els normes en vigueur</t>
+  </si>
+  <si>
+    <t>Pour mieux s'y retrouver dans le HTML, il est important de bien chisir ses balises structurantes</t>
+  </si>
+  <si>
+    <t>L'utilisation de balises structurantes comme article ou section</t>
+  </si>
+  <si>
+    <t>La balise h2 est utilisée dans le mauvais sens, et arrive trop loin dans le code sans définir de sous-parties</t>
+  </si>
+  <si>
+    <t>Réorganiser les titres pour mieux définir l'ensemble des sous-parties de la page</t>
+  </si>
+  <si>
+    <t>Les balises des images ne dévrivent pas l'image et pourraient être considérés comme du spam lors de l'indexation de la page par Google</t>
+  </si>
+  <si>
+    <t>Réorganiser les balises pour qu'elles soient correctes. Et réécrire des descriptions conrfomes aux images et utilisant un mot-clé pour mieux être référencé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si la langue n'est pas spécifiée, Google aura des difficultés à identifier l'origine géographique de notre site, ce qui est un problème pour son référencement </t>
+  </si>
+  <si>
+    <t>Spécifier la langue de notre site web grâce à la balise hrelang</t>
+  </si>
+  <si>
+    <t>Le header est important pour identifier l'en-tête de notre site</t>
+  </si>
+  <si>
+    <t>Définir ce qui est considéré comme l'en-tête de notre page</t>
+  </si>
+  <si>
+    <t>Le footer est important pour identifier le pied de page de notre site</t>
+  </si>
+  <si>
+    <t>Définir ce qui est considéré comme le pied de page de notre page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'absence de barre de navigation peut rendre confus le visiteur tout comme google lors d el'indexation des pages </t>
+  </si>
+  <si>
+    <t>Repenser le menu pour qu'il soit plus claire</t>
+  </si>
+  <si>
+    <t>Le site connait une perte d'informations et n'est pas adapté au écrans de smartphones</t>
+  </si>
+  <si>
+    <t>Penser mobile-first en adaptant la version responsive de notre site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les tailles des images sont soient inadaptées aux divs de la page, soient trop grandes. Cela augmente leut temps de chargement réduisant l'optimisation du site </t>
+  </si>
+  <si>
+    <t>Redimenssionner les images pour qu'elles collent mieux à leur bloc, et les compresser</t>
+  </si>
+  <si>
+    <t>Une seconde page d'un site doit se justifier par l'apport d'une information complémentaire à la première page. S'il s'agit juste d'un formulaire de contact, ce dernier peut être intégré à la première</t>
+  </si>
+  <si>
+    <t>Si la page 2 n'a pas d'informations supllémentaires et complémentaires à apporter, alors son utilité doit être remise en question</t>
+  </si>
+  <si>
+    <t>Les liens doivent servir l'intérêt du site, sans cela les supprimer</t>
+  </si>
+  <si>
+    <t>Redéfinir le formulaire pour qu'il sit mieux mis en forme</t>
+  </si>
+  <si>
+    <t>Les fichiers javascript</t>
+  </si>
+  <si>
+    <t>Il manque les infos async ou defer aux fichiers Javascript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le formulaire n'a pas l'air terminé </t>
+  </si>
+  <si>
+    <t>Sans indications, le navigateur va probablement ralentir l'exécution des fichiers javascript</t>
+  </si>
+  <si>
+    <t>Indiquer à chaque fichier javascript comment il doit être exécuté</t>
+  </si>
+  <si>
+    <t>Contraste</t>
+  </si>
+  <si>
+    <t>https://wave.webaim.org/report#/https://richardz1.github.io/Projet4_Referencement/</t>
+  </si>
+  <si>
+    <t>Le contraste entre les couleurs d'arrière-pan et de premier paln sont trop faibles</t>
+  </si>
+  <si>
+    <t>Il faut un contraste plus prononcé si l'on souhaite que notre site soit plus accessible aux personnes ayant un handicap visuel par exemple</t>
+  </si>
+  <si>
+    <t>Jouer sur le contraste du premier plan et de l'arrière plan</t>
+  </si>
+  <si>
+    <t>https://gtmetrix.com/reports/richardz1.github.io/PzjEAmuR</t>
+  </si>
+  <si>
+    <t>https://smartkeyword.io/seo-technique-seo-balise-meta-robots/</t>
+  </si>
+  <si>
+    <t>https://blog.comexplorer.com/optimisation-seo</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Apprendre/HTML/Introduction_%C3%A0_HTML/Document_and_website_structure</t>
+  </si>
+  <si>
+    <t>https://www.alsacreations.com/article/lire/1376-html5-section-article-nav-header-footer-aside.html</t>
+  </si>
+  <si>
+    <t>https://www.alsacreations.com/astuce/lire/1151-langue-du-contenu.html</t>
+  </si>
+  <si>
+    <t>http://ergonomie-web.studiovitamine.com/barre-navigation-menu,353,fr.html</t>
+  </si>
+  <si>
+    <t>https://fr.wix.com/blog/2018/12/17/formulaire-en-ligne-site/</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Apprendre/HTML/Comment/Utiliser_JavaScript_au_sein_d_une_page_web#:~:text=le%20Guide%20JavaScript.-,Comment%20d%C3%A9clencher%20le%20code%20JavaScript%20depuis%20le%20document%20HTML,l'%C3%A9l%C3%A9ment%20.</t>
+  </si>
+  <si>
+    <t>https://www.redacteur.com/blog/seo-reparer-liens-brises/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,21 +335,63 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <i/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -165,9 +426,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -176,18 +437,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -404,20 +700,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A10"/>
+    <sheetView tabSelected="1" topLeftCell="D18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="65.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="26" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -425,16 +721,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -461,156 +757,602 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:26" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:26" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="B4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="C5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="C12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B13" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="C13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B14" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="C14" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="B15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="B16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="B19" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="9"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="9"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="9"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="9"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="9"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="10"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="10"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="10"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="10"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="10"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="10"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="10"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="2:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="10"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="2:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="10"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="20"/>
+    </row>
+    <row r="35" spans="2:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="10"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="20"/>
+    </row>
+    <row r="36" spans="2:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="10"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="20"/>
+    </row>
+    <row r="37" spans="2:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="10"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="20"/>
+    </row>
+    <row r="38" spans="2:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="10"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="20"/>
+    </row>
+    <row r="39" spans="2:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="10"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="20"/>
+    </row>
+    <row r="40" spans="2:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="10"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="20"/>
+    </row>
+    <row r="41" spans="2:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="10"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="20"/>
+    </row>
+    <row r="42" spans="2:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="10"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="20"/>
+    </row>
+    <row r="43" spans="2:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="10"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="20"/>
+    </row>
+    <row r="44" spans="2:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="10"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="20"/>
+    </row>
+    <row r="45" spans="2:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="10"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="20"/>
+    </row>
+    <row r="46" spans="2:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="10"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="20"/>
+    </row>
+    <row r="47" spans="2:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="10"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="20"/>
+    </row>
+    <row r="48" spans="2:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="10"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="20"/>
+    </row>
+    <row r="49" spans="2:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="10"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="20"/>
+    </row>
+    <row r="50" spans="2:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="10"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="20"/>
+    </row>
+    <row r="51" spans="2:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="10"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="20"/>
+    </row>
+    <row r="52" spans="2:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="10"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="20"/>
+    </row>
+    <row r="53" spans="2:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="10"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="20"/>
+    </row>
+    <row r="54" spans="2:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="10"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="20"/>
+    </row>
+    <row r="55" spans="2:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="10"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="20"/>
+    </row>
+    <row r="56" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1547,12 +2289,37 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{C51F3285-7434-4201-B13E-ED787DFB7A81}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{BDF4F393-56AD-464E-A41F-207E824351D2}"/>
+    <hyperlink ref="F19" r:id="rId3" location="/https://richardz1.github.io/Projet4_Referencement/" display="https://wave.webaim.org/report - /https://richardz1.github.io/Projet4_Referencement/" xr:uid="{06A7BB5C-7074-4FCA-A003-12B75B4845D4}"/>
+    <hyperlink ref="F11" r:id="rId4" xr:uid="{463E62CF-3631-42AE-B2ED-348AE6DB24F0}"/>
+    <hyperlink ref="F15" r:id="rId5" xr:uid="{141CC412-C973-45A9-99EB-496560594928}"/>
+    <hyperlink ref="F4" r:id="rId6" xr:uid="{31E8571A-E4F4-41FA-A5FF-5560258AFB8C}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{9283981E-AAF8-4228-9A99-64A837AD89DE}"/>
+    <hyperlink ref="F6" r:id="rId8" xr:uid="{C59945E5-FFF1-40D0-87FA-996C3ED7C9AB}"/>
+    <hyperlink ref="F7" r:id="rId9" xr:uid="{0B7CE2A5-98F3-42EE-9B4C-EA7A285DA6D6}"/>
+    <hyperlink ref="F8" r:id="rId10" xr:uid="{EDDB4868-06E8-4885-A462-C552BE376B93}"/>
+    <hyperlink ref="F9" r:id="rId11" xr:uid="{A41052D8-D9FC-4374-8EC2-DD7BA0C473B2}"/>
+    <hyperlink ref="F10" r:id="rId12" xr:uid="{845EF136-1FD7-493A-97E1-40286C0D2DBB}"/>
+    <hyperlink ref="F12" r:id="rId13" xr:uid="{0397F80B-4BDD-428B-9E5A-98D71F4F6E2D}"/>
+    <hyperlink ref="F13" r:id="rId14" xr:uid="{E6641F15-C399-4A70-BCCD-BDDA6591078D}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{B3878237-21FF-4D44-BAA7-24D494591D0A}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{B7BF3A7E-8F44-4D47-8473-5DACBB9AF774}"/>
+    <hyperlink ref="F18" r:id="rId17" location=":~:text=le%20Guide%20JavaScript.-,Comment%20d%C3%A9clencher%20le%20code%20JavaScript%20depuis%20le%20document%20HTML,l'%C3%A9l%C3%A9ment%20." display="https://developer.mozilla.org/fr/docs/Apprendre/HTML/Comment/Utiliser_JavaScript_au_sein_d_une_page_web - :~:text=le%20Guide%20JavaScript.-,Comment%20d%C3%A9clencher%20le%20code%20JavaScript%20depuis%20le%20document%20HTML,l'%C3%A9l%C3%A9ment%20." xr:uid="{D5BC8CB0-AE40-447F-BD7A-042CBCA04562}"/>
+    <hyperlink ref="F20" r:id="rId18" xr:uid="{161D406F-A482-4925-8930-33DC092ECE4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId3"/>
+  <pageSetup orientation="landscape" r:id="rId19"/>
 </worksheet>
 </file>